--- a/Execution Providers Tester/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 11:56:32</t>
+          <t>2025-08-27 12:31:22</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 12:31:22</t>
+          <t>2025-08-27 16:49:48</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 16:49:48</t>
+          <t>2025-08-29 10:45:23</t>
         </is>
       </c>
     </row>
